--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="327">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -43,9 +46,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -76,883 +76,928 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
     <t>0.999+/-0.0</t>
   </si>
   <si>
-    <t>0.817+/-0.0</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.742+/-0.012</t>
+    <t>0.82+/-0.0</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.745+/-0.013</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.972+/-0.008</t>
+  </si>
+  <si>
+    <t>0.653</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.639+/-0.001</t>
+  </si>
+  <si>
+    <t>0.636+/-0.0</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.621+/-0.001</t>
+  </si>
+  <si>
+    <t>0.618+/-0.009</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.712+/-0.002</t>
+  </si>
+  <si>
+    <t>0.71+/-0.018</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.164+/-0.012</t>
+  </si>
+  <si>
+    <t>0.601+/-0.003</t>
+  </si>
+  <si>
+    <t>0.6+/-0.0</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.57+/-0.002</t>
+  </si>
+  <si>
+    <t>0.57+/-0.012</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.82+/-0.002</t>
+  </si>
+  <si>
+    <t>0.819+/-0.024</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.588+/-0.002</t>
+  </si>
+  <si>
+    <t>0.587+/-0.0</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.579+/-0.001</t>
+  </si>
+  <si>
+    <t>0.578+/-0.01</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.644+/-0.005</t>
+  </si>
+  <si>
+    <t>0.643+/-0.021</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.83+/-0.005</t>
+  </si>
+  <si>
+    <t>0.784+/-0.0</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.81+/-0.02</t>
+  </si>
+  <si>
+    <t>0.766+/-0.012</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.864+/-0.035</t>
+  </si>
+  <si>
+    <t>0.819+/-0.03</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>3.375+/-0.805</t>
+  </si>
+  <si>
+    <t>0.797+/-0.007</t>
+  </si>
+  <si>
+    <t>0.75+/-0.0</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.773+/-0.023</t>
+  </si>
+  <si>
+    <t>0.729+/-0.023</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.843+/-0.04</t>
+  </si>
+  <si>
+    <t>0.8+/-0.035</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.116+/-0.008</t>
+  </si>
+  <si>
+    <t>0.79+/-0.007</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>0.775+/-0.045</t>
+  </si>
+  <si>
+    <t>0.735+/-0.042</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
+    <t>0.829+/-0.068</t>
+  </si>
+  <si>
+    <t>0.794+/-0.068</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.167+/-0.005</t>
+  </si>
+  <si>
+    <t>0.778+/-0.002</t>
+  </si>
+  <si>
+    <t>0.762+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.757+/-0.004</t>
+  </si>
+  <si>
+    <t>0.742+/-0.016</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>0.819+/-0.005</t>
+  </si>
+  <si>
+    <t>0.802+/-0.016</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>30.6+/-0.422</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.834+/-0.0</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.755+/-0.007</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>0.988+/-0.005</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
+  </si>
+  <si>
+    <t>0.663+/-0.001</t>
+  </si>
+  <si>
+    <t>0.661+/-0.0</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.644+/-0.001</t>
+  </si>
+  <si>
+    <t>0.643+/-0.012</t>
+  </si>
+  <si>
+    <t>0.218</t>
+  </si>
+  <si>
+    <t>0.727+/-0.002</t>
+  </si>
+  <si>
+    <t>0.726+/-0.019</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.284+/-0.035</t>
+  </si>
+  <si>
+    <t>0.608+/-0.003</t>
+  </si>
+  <si>
+    <t>0.608+/-0.0</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.579+/-0.003</t>
+  </si>
+  <si>
+    <t>0.579+/-0.015</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.792+/-0.005</t>
+  </si>
+  <si>
+    <t>0.79+/-0.02</t>
+  </si>
+  <si>
+    <t>0.007+/-0.002</t>
+  </si>
+  <si>
+    <t>0.601+/-0.002</t>
+  </si>
+  <si>
+    <t>0.601+/-0.0</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.593+/-0.002</t>
+  </si>
+  <si>
+    <t>0.593+/-0.017</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.647+/-0.004</t>
+  </si>
+  <si>
+    <t>0.646+/-0.017</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.86+/-0.006</t>
+  </si>
+  <si>
+    <t>0.818+/-0.0</t>
+  </si>
+  <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>0.84+/-0.015</t>
+  </si>
+  <si>
+    <t>0.797+/-0.017</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.892+/-0.027</t>
+  </si>
+  <si>
+    <t>0.855+/-0.031</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>4.325+/-0.821</t>
+  </si>
+  <si>
+    <t>0.816+/-0.004</t>
+  </si>
+  <si>
+    <t>0.77+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.9+/-0.011</t>
+  </si>
+  <si>
+    <t>0.844+/-0.022</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.712+/-0.017</t>
+  </si>
+  <si>
+    <t>0.664+/-0.012</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.162+/-0.013</t>
+  </si>
+  <si>
+    <t>0.808+/-0.006</t>
+  </si>
+  <si>
+    <t>0.771+/-0.0</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>0.894+/-0.012</t>
+  </si>
+  <si>
+    <t>0.845+/-0.018</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>0.7+/-0.019</t>
+  </si>
+  <si>
+    <t>0.665+/-0.017</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>0.23+/-0.006</t>
+  </si>
+  <si>
+    <t>0.799+/-0.001</t>
+  </si>
+  <si>
+    <t>0.782+/-0.0</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.792+/-0.002</t>
+  </si>
+  <si>
+    <t>0.773+/-0.012</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.813+/-0.003</t>
+  </si>
+  <si>
+    <t>0.798+/-0.012</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>34.087+/-1.899</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.733+/-0.0</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.67+/-0.007</t>
+  </si>
+  <si>
+    <t>0.921+/-0.007</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.589+/-0.002</t>
+  </si>
+  <si>
+    <t>0.596+/-0.002</t>
+  </si>
+  <si>
+    <t>0.595+/-0.019</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.549+/-0.003</t>
+  </si>
+  <si>
+    <t>0.547+/-0.021</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>0.158+/-0.01</t>
+  </si>
+  <si>
+    <t>0.566+/-0.002</t>
+  </si>
+  <si>
+    <t>0.564+/-0.0</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.575+/-0.002</t>
+  </si>
+  <si>
+    <t>0.573+/-0.013</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.508+/-0.016</t>
+  </si>
+  <si>
+    <t>0.507+/-0.022</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.007+/-0.004</t>
+  </si>
+  <si>
+    <t>0.562+/-0.001</t>
+  </si>
+  <si>
+    <t>0.56+/-0.0</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.567+/-0.001</t>
+  </si>
+  <si>
+    <t>0.565+/-0.012</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.524+/-0.005</t>
+  </si>
+  <si>
+    <t>0.522+/-0.013</t>
+  </si>
+  <si>
+    <t>0.509</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.739+/-0.011</t>
+  </si>
+  <si>
+    <t>0.652+/-0.0</t>
+  </si>
+  <si>
+    <t>0.721+/-0.017</t>
+  </si>
+  <si>
+    <t>0.639+/-0.016</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.781+/-0.033</t>
+  </si>
+  <si>
+    <t>0.697+/-0.034</t>
+  </si>
+  <si>
+    <t>0.546</t>
+  </si>
+  <si>
+    <t>3.392+/-0.378</t>
+  </si>
+  <si>
+    <t>0.763+/-0.008</t>
+  </si>
+  <si>
+    <t>0.694+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.849+/-0.044</t>
+  </si>
+  <si>
+    <t>0.758+/-0.045</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.645+/-0.047</t>
+  </si>
+  <si>
+    <t>0.58+/-0.049</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.748+/-0.008</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.84+/-0.033</t>
+  </si>
+  <si>
+    <t>0.762+/-0.033</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.616+/-0.023</t>
+  </si>
+  <si>
+    <t>0.563+/-0.03</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.164+/-0.006</t>
+  </si>
+  <si>
+    <t>0.678+/-0.002</t>
+  </si>
+  <si>
+    <t>0.637+/-0.0</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.676+/-0.004</t>
+  </si>
+  <si>
+    <t>0.634+/-0.012</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>0.684+/-0.009</t>
+  </si>
+  <si>
+    <t>0.649+/-0.027</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>32.857+/-1.888</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.707+/-0.0</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.65+/-0.01</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.895+/-0.013</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.561+/-0.002</t>
+  </si>
+  <si>
+    <t>0.558+/-0.0</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>0.567+/-0.002</t>
+  </si>
+  <si>
+    <t>0.563+/-0.017</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.522+/-0.004</t>
+  </si>
+  <si>
+    <t>0.519+/-0.017</t>
+  </si>
+  <si>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>0.094+/-0.01</t>
+  </si>
+  <si>
+    <t>0.548+/-0.002</t>
+  </si>
+  <si>
+    <t>0.548+/-0.0</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.555+/-0.004</t>
+  </si>
+  <si>
+    <t>0.555+/-0.012</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.483+/-0.022</t>
+  </si>
+  <si>
+    <t>0.481+/-0.041</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.545+/-0.002</t>
+  </si>
+  <si>
+    <t>0.543+/-0.0</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.55+/-0.002</t>
+  </si>
+  <si>
+    <t>0.547+/-0.014</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.503+/-0.003</t>
+  </si>
+  <si>
+    <t>0.503+/-0.026</t>
+  </si>
+  <si>
+    <t>0.503</t>
+  </si>
+  <si>
+    <t>0.715+/-0.009</t>
+  </si>
+  <si>
+    <t>0.625+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704+/-0.019</t>
+  </si>
+  <si>
+    <t>0.617+/-0.02</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.746+/-0.053</t>
+  </si>
+  <si>
+    <t>0.663+/-0.055</t>
+  </si>
+  <si>
+    <t>3.271+/-0.53</t>
+  </si>
+  <si>
+    <t>0.727+/-0.006</t>
+  </si>
+  <si>
+    <t>0.664+/-0.0</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.729+/-0.011</t>
   </si>
   <si>
     <t>0.341</t>
   </si>
   <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.973+/-0.007</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.637+/-0.001</t>
-  </si>
-  <si>
-    <t>0.635+/-0.0</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.621+/-0.001</t>
-  </si>
-  <si>
-    <t>0.62+/-0.007</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
-    <t>0.701+/-0.003</t>
-  </si>
-  <si>
-    <t>0.7+/-0.023</t>
-  </si>
-  <si>
-    <t>0.709</t>
-  </si>
-  <si>
-    <t>0.208+/-0.027</t>
-  </si>
-  <si>
-    <t>0.598+/-0.002</t>
-  </si>
-  <si>
-    <t>0.597+/-0.0</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.57+/-0.001</t>
-  </si>
-  <si>
-    <t>0.569+/-0.011</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.804+/-0.003</t>
-  </si>
-  <si>
-    <t>0.803+/-0.012</t>
-  </si>
-  <si>
-    <t>0.752</t>
-  </si>
-  <si>
-    <t>0.007+/-0.002</t>
-  </si>
-  <si>
-    <t>0.588+/-0.001</t>
-  </si>
-  <si>
-    <t>0.588+/-0.0</t>
-  </si>
-  <si>
-    <t>0.539</t>
-  </si>
-  <si>
-    <t>0.58+/-0.001</t>
-  </si>
-  <si>
-    <t>0.58+/-0.008</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.641+/-0.001</t>
-  </si>
-  <si>
-    <t>0.641+/-0.014</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.832+/-0.01</t>
-  </si>
-  <si>
-    <t>0.788+/-0.0</t>
-  </si>
-  <si>
-    <t>0.735</t>
-  </si>
-  <si>
-    <t>0.823+/-0.021</t>
-  </si>
-  <si>
-    <t>0.778+/-0.028</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.848+/-0.032</t>
-  </si>
-  <si>
-    <t>0.809+/-0.037</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>6.003+/-1.85</t>
-  </si>
-  <si>
-    <t>0.802+/-0.004</t>
-  </si>
-  <si>
-    <t>0.748+/-0.0</t>
-  </si>
-  <si>
-    <t>0.715</t>
-  </si>
-  <si>
-    <t>0.828+/-0.04</t>
-  </si>
-  <si>
-    <t>0.766+/-0.032</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.769+/-0.056</t>
-  </si>
-  <si>
-    <t>0.722+/-0.068</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.148+/-0.01</t>
-  </si>
-  <si>
-    <t>0.786+/-0.005</t>
-  </si>
-  <si>
-    <t>0.734+/-0.0</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.838+/-0.05</t>
-  </si>
-  <si>
-    <t>0.774+/-0.047</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.72+/-0.068</t>
-  </si>
-  <si>
-    <t>0.672+/-0.072</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.199+/-0.014</t>
-  </si>
-  <si>
-    <t>0.779+/-0.002</t>
-  </si>
-  <si>
-    <t>0.76+/-0.0</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.762+/-0.002</t>
-  </si>
-  <si>
-    <t>0.744+/-0.013</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.811+/-0.004</t>
-  </si>
-  <si>
-    <t>0.793+/-0.015</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>60.617+/-7.738</t>
-  </si>
-  <si>
-    <t>0.838+/-0.0</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.76+/-0.006</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.989+/-0.005</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.662+/-0.002</t>
-  </si>
-  <si>
-    <t>0.662+/-0.0</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>0.646+/-0.002</t>
-  </si>
-  <si>
-    <t>0.646+/-0.011</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.717+/-0.003</t>
-  </si>
-  <si>
-    <t>0.718+/-0.017</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.341+/-0.026</t>
-  </si>
-  <si>
-    <t>0.612+/-0.003</t>
-  </si>
-  <si>
-    <t>0.611+/-0.0</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.585+/-0.003</t>
-  </si>
-  <si>
-    <t>0.585+/-0.012</t>
-  </si>
-  <si>
-    <t>0.195</t>
-  </si>
-  <si>
-    <t>0.765+/-0.01</t>
-  </si>
-  <si>
-    <t>0.763+/-0.008</t>
-  </si>
-  <si>
-    <t>0.742</t>
-  </si>
-  <si>
-    <t>0.607+/-0.002</t>
-  </si>
-  <si>
-    <t>0.606+/-0.0</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.6+/-0.002</t>
-  </si>
-  <si>
-    <t>0.6+/-0.02</t>
-  </si>
-  <si>
-    <t>0.194</t>
-  </si>
-  <si>
-    <t>0.64+/-0.003</t>
-  </si>
-  <si>
-    <t>0.64+/-0.019</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.863+/-0.007</t>
-  </si>
-  <si>
-    <t>0.82+/-0.0</t>
-  </si>
-  <si>
-    <t>0.845+/-0.02</t>
-  </si>
-  <si>
-    <t>0.799+/-0.017</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.89+/-0.035</t>
-  </si>
-  <si>
-    <t>0.856+/-0.033</t>
+    <t>0.723+/-0.026</t>
+  </si>
+  <si>
+    <t>0.665+/-0.029</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t>0.098+/-0.007</t>
+  </si>
+  <si>
+    <t>0.711+/-0.004</t>
+  </si>
+  <si>
+    <t>0.666+/-0.0</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.724+/-0.009</t>
+  </si>
+  <si>
+    <t>0.676+/-0.017</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.682+/-0.024</t>
+  </si>
+  <si>
+    <t>0.639+/-0.026</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.137+/-0.007</t>
+  </si>
+  <si>
+    <t>0.662+/-0.003</t>
+  </si>
+  <si>
+    <t>0.621+/-0.0</t>
   </si>
   <si>
     <t>0.566</t>
   </si>
   <si>
-    <t>5.87+/-1.196</t>
-  </si>
-  <si>
-    <t>0.767+/-0.0</t>
-  </si>
-  <si>
-    <t>0.816</t>
-  </si>
-  <si>
-    <t>0.908+/-0.009</t>
-  </si>
-  <si>
-    <t>0.847+/-0.016</t>
-  </si>
-  <si>
-    <t>0.395</t>
-  </si>
-  <si>
-    <t>0.693+/-0.009</t>
-  </si>
-  <si>
-    <t>0.651+/-0.016</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>0.19+/-0.017</t>
-  </si>
-  <si>
-    <t>0.806+/-0.004</t>
-  </si>
-  <si>
-    <t>0.763+/-0.0</t>
-  </si>
-  <si>
-    <t>0.811</t>
-  </si>
-  <si>
-    <t>0.898+/-0.007</t>
-  </si>
-  <si>
-    <t>0.84+/-0.01</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.69+/-0.014</t>
-  </si>
-  <si>
-    <t>0.651+/-0.017</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>0.252+/-0.008</t>
-  </si>
-  <si>
-    <t>0.797+/-0.001</t>
-  </si>
-  <si>
-    <t>0.78+/-0.0</t>
-  </si>
-  <si>
-    <t>0.736</t>
-  </si>
-  <si>
-    <t>0.796+/-0.002</t>
-  </si>
-  <si>
-    <t>0.776+/-0.01</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.8+/-0.003</t>
-  </si>
-  <si>
-    <t>0.786+/-0.016</t>
-  </si>
-  <si>
-    <t>0.552</t>
-  </si>
-  <si>
-    <t>47.92+/-7.34</t>
-  </si>
-  <si>
-    <t>0.731+/-0.0</t>
-  </si>
-  <si>
-    <t>1.0+/-0.001</t>
-  </si>
-  <si>
-    <t>0.668+/-0.008</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.998+/-0.001</t>
-  </si>
-  <si>
-    <t>0.917+/-0.011</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.585+/-0.002</t>
-  </si>
-  <si>
-    <t>0.583+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592+/-0.002</t>
-  </si>
-  <si>
-    <t>0.589+/-0.012</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.549+/-0.002</t>
-  </si>
-  <si>
-    <t>0.546+/-0.021</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.172+/-0.013</t>
-  </si>
-  <si>
-    <t>0.564+/-0.002</t>
-  </si>
-  <si>
-    <t>0.561+/-0.0</t>
-  </si>
-  <si>
-    <t>0.568+/-0.002</t>
-  </si>
-  <si>
-    <t>0.565+/-0.013</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.534+/-0.017</t>
-  </si>
-  <si>
-    <t>0.533+/-0.021</t>
-  </si>
-  <si>
-    <t>0.546</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.554+/-0.001</t>
-  </si>
-  <si>
-    <t>0.553+/-0.0</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.558+/-0.001</t>
-  </si>
-  <si>
-    <t>0.558+/-0.014</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.518+/-0.003</t>
-  </si>
-  <si>
-    <t>0.516+/-0.015</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.742+/-0.008</t>
-  </si>
-  <si>
-    <t>0.661+/-0.0</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.737+/-0.022</t>
-  </si>
-  <si>
-    <t>0.656+/-0.023</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.757+/-0.047</t>
-  </si>
-  <si>
-    <t>0.685+/-0.045</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>4.563+/-1.145</t>
-  </si>
-  <si>
-    <t>0.756+/-0.004</t>
-  </si>
-  <si>
-    <t>0.674+/-0.0</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>0.805+/-0.04</t>
-  </si>
-  <si>
-    <t>0.709+/-0.043</t>
-  </si>
-  <si>
-    <t>0.683+/-0.051</t>
-  </si>
-  <si>
-    <t>0.597+/-0.051</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>0.125+/-0.009</t>
-  </si>
-  <si>
-    <t>0.74+/-0.007</t>
-  </si>
-  <si>
-    <t>0.676+/-0.0</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.79+/-0.046</t>
-  </si>
-  <si>
-    <t>0.716+/-0.051</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.661+/-0.046</t>
-  </si>
-  <si>
-    <t>0.594+/-0.041</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.188+/-0.026</t>
-  </si>
-  <si>
-    <t>0.679+/-0.003</t>
-  </si>
-  <si>
-    <t>0.636+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.672+/-0.002</t>
-  </si>
-  <si>
-    <t>0.63+/-0.013</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.701+/-0.007</t>
-  </si>
-  <si>
-    <t>0.662+/-0.018</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>40.55+/-5.313</t>
-  </si>
-  <si>
-    <t>0.71+/-0.0</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.652+/-0.011</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.998+/-0.0</t>
-  </si>
-  <si>
-    <t>0.899+/-0.011</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.562+/-0.0</t>
-  </si>
-  <si>
-    <t>0.572+/-0.002</t>
-  </si>
-  <si>
-    <t>0.566+/-0.01</t>
-  </si>
-  <si>
-    <t>0.537+/-0.005</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.189+/-0.023</t>
-  </si>
-  <si>
-    <t>0.549+/-0.001</t>
-  </si>
-  <si>
-    <t>0.547+/-0.0</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.562+/-0.003</t>
-  </si>
-  <si>
-    <t>0.56+/-0.014</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.443+/-0.018</t>
-  </si>
-  <si>
-    <t>0.442+/-0.029</t>
-  </si>
-  <si>
-    <t>0.442</t>
-  </si>
-  <si>
-    <t>0.544+/-0.001</t>
-  </si>
-  <si>
-    <t>0.542+/-0.0</t>
-  </si>
-  <si>
-    <t>0.547+/-0.011</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.494+/-0.002</t>
-  </si>
-  <si>
-    <t>0.492+/-0.021</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.011+/-0.002</t>
-  </si>
-  <si>
-    <t>0.71+/-0.01</t>
-  </si>
-  <si>
-    <t>0.631+/-0.0</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.698+/-0.017</t>
-  </si>
-  <si>
-    <t>0.622+/-0.017</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.745+/-0.053</t>
-  </si>
-  <si>
-    <t>0.673+/-0.045</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>5.497+/-1.14</t>
-  </si>
-  <si>
-    <t>0.728+/-0.008</t>
-  </si>
-  <si>
-    <t>0.664+/-0.0</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.722+/-0.007</t>
-  </si>
-  <si>
-    <t>0.66+/-0.011</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>0.744+/-0.032</t>
-  </si>
-  <si>
-    <t>0.68+/-0.033</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.122+/-0.009</t>
-  </si>
-  <si>
-    <t>0.711+/-0.005</t>
-  </si>
-  <si>
-    <t>0.716+/-0.01</t>
-  </si>
-  <si>
-    <t>0.664+/-0.012</t>
-  </si>
-  <si>
-    <t>0.701+/-0.027</t>
-  </si>
-  <si>
-    <t>0.652+/-0.039</t>
-  </si>
-  <si>
-    <t>0.172+/-0.005</t>
-  </si>
-  <si>
-    <t>0.658+/-0.003</t>
-  </si>
-  <si>
-    <t>0.624+/-0.0</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.65+/-0.002</t>
-  </si>
-  <si>
-    <t>0.617+/-0.011</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>0.683+/-0.009</t>
-  </si>
-  <si>
-    <t>0.652+/-0.02</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>45.412+/-3.141</t>
+    <t>0.647+/-0.002</t>
+  </si>
+  <si>
+    <t>0.609+/-0.011</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.71+/-0.011</t>
+  </si>
+  <si>
+    <t>0.672+/-0.028</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>29.071+/-0.481</t>
   </si>
 </sst>
 </file>
@@ -1353,28 +1398,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1382,31 +1427,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1414,31 +1459,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4">
-        <v>0.7983870967741935</v>
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1446,31 +1491,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1478,31 +1523,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1510,31 +1555,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1542,31 +1587,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1574,31 +1619,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1606,31 +1651,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1638,31 +1683,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1715,28 +1760,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>159</v>
+      </c>
+      <c r="J2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1744,31 +1789,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>160</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1776,31 +1821,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4">
-        <v>0.85</v>
+        <v>161</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1808,31 +1853,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="J5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1840,31 +1885,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="J6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1872,31 +1917,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="J7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1904,31 +1949,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="J8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1936,31 +1981,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="J9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1968,31 +2013,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="J10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2000,31 +2045,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="J11" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2077,13 +2122,13 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
         <v>206</v>
@@ -2095,10 +2140,10 @@
         <v>225</v>
       </c>
       <c r="I2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>234</v>
+      </c>
+      <c r="J2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2106,16 +2151,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
         <v>207</v>
@@ -2127,10 +2172,10 @@
         <v>226</v>
       </c>
       <c r="I3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>235</v>
+      </c>
+      <c r="J3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2138,31 +2183,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
         <v>208</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>227</v>
       </c>
       <c r="I4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J4">
-        <v>0.7231182795698925</v>
+        <v>236</v>
+      </c>
+      <c r="J4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2170,31 +2215,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
         <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H5" t="s">
         <v>228</v>
       </c>
       <c r="I5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="J5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2202,31 +2247,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
         <v>210</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H6" t="s">
         <v>229</v>
       </c>
       <c r="I6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="J6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2234,31 +2279,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
         <v>211</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="H7" t="s">
         <v>230</v>
       </c>
       <c r="I7" t="s">
-        <v>240</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="J7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2266,16 +2311,16 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
         <v>212</v>
@@ -2287,10 +2332,10 @@
         <v>231</v>
       </c>
       <c r="I8" t="s">
-        <v>241</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="J8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2298,16 +2343,16 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
         <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
         <v>213</v>
@@ -2319,10 +2364,10 @@
         <v>232</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="J9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2330,16 +2375,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
         <v>214</v>
@@ -2351,10 +2396,10 @@
         <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>243</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="J10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2362,16 +2407,16 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
         <v>215</v>
@@ -2380,13 +2425,13 @@
         <v>224</v>
       </c>
       <c r="H11" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="J11" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2439,28 +2484,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2468,31 +2513,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H3" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
-        <v>303</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2500,31 +2545,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="I4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4">
-        <v>0.6919354838709677</v>
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2532,31 +2577,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2564,31 +2609,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>298</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="J6" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2596,31 +2641,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H7" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>312</v>
+      </c>
+      <c r="J7" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2628,31 +2673,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="I8" t="s">
-        <v>308</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>313</v>
+      </c>
+      <c r="J8" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2660,31 +2705,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I9" t="s">
-        <v>309</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>314</v>
+      </c>
+      <c r="J9" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2692,31 +2737,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G10" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="H10" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="I10" t="s">
-        <v>310</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="J10" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2724,31 +2769,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I11" t="s">
-        <v>311</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>316</v>
+      </c>
+      <c r="J11" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -97,907 +97,907 @@
     <t>0.999+/-0.0</t>
   </si>
   <si>
-    <t>0.82+/-0.0</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.745+/-0.013</t>
-  </si>
-  <si>
-    <t>0.338</t>
+    <t>0.818+/-0.0</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.745+/-0.011</t>
+  </si>
+  <si>
+    <t>0.324</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.972+/-0.008</t>
-  </si>
-  <si>
-    <t>0.653</t>
+    <t>0.97+/-0.008</t>
+  </si>
+  <si>
+    <t>0.632</t>
   </si>
   <si>
     <t>0.002+/-0.0</t>
   </si>
   <si>
-    <t>0.639+/-0.001</t>
-  </si>
-  <si>
-    <t>0.636+/-0.0</t>
+    <t>0.642+/-0.001</t>
+  </si>
+  <si>
+    <t>0.641+/-0.0</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.625+/-0.001</t>
+  </si>
+  <si>
+    <t>0.624+/-0.008</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.709+/-0.003</t>
+  </si>
+  <si>
+    <t>0.708+/-0.022</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.16+/-0.009</t>
+  </si>
+  <si>
+    <t>0.603+/-0.002</t>
+  </si>
+  <si>
+    <t>0.602+/-0.0</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.572+/-0.001</t>
+  </si>
+  <si>
+    <t>0.572+/-0.012</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>0.815+/-0.002</t>
+  </si>
+  <si>
+    <t>0.815+/-0.016</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.59+/-0.002</t>
+  </si>
+  <si>
+    <t>0.59+/-0.0</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>0.581+/-0.001</t>
+  </si>
+  <si>
+    <t>0.582+/-0.01</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>0.642+/-0.004</t>
+  </si>
+  <si>
+    <t>0.642+/-0.018</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.006+/-0.0</t>
+  </si>
+  <si>
+    <t>0.831+/-0.006</t>
+  </si>
+  <si>
+    <t>0.783+/-0.0</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>0.802+/-0.018</t>
+  </si>
+  <si>
+    <t>0.754+/-0.014</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.88+/-0.026</t>
+  </si>
+  <si>
+    <t>0.843+/-0.032</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>2.753+/-0.406</t>
+  </si>
+  <si>
+    <t>0.792+/-0.003</t>
+  </si>
+  <si>
+    <t>0.741+/-0.0</t>
+  </si>
+  <si>
+    <t>0.666</t>
+  </si>
+  <si>
+    <t>0.778+/-0.026</t>
+  </si>
+  <si>
+    <t>0.728+/-0.024</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.82+/-0.044</t>
+  </si>
+  <si>
+    <t>0.775+/-0.049</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.109+/-0.005</t>
+  </si>
+  <si>
+    <t>0.788+/-0.003</t>
+  </si>
+  <si>
+    <t>0.742+/-0.0</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.801+/-0.032</t>
+  </si>
+  <si>
+    <t>0.75+/-0.029</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.772+/-0.052</t>
+  </si>
+  <si>
+    <t>0.732+/-0.06</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>0.145+/-0.001</t>
+  </si>
+  <si>
+    <t>0.779+/-0.002</t>
+  </si>
+  <si>
+    <t>0.761+/-0.0</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.76+/-0.002</t>
+  </si>
+  <si>
+    <t>0.742+/-0.012</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.817+/-0.005</t>
+  </si>
+  <si>
+    <t>0.8+/-0.021</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>27.075+/-1.215</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.837+/-0.0</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.759+/-0.007</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>0.988+/-0.008</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.661+/-0.002</t>
+  </si>
+  <si>
+    <t>0.658+/-0.0</t>
+  </si>
+  <si>
+    <t>0.643+/-0.002</t>
+  </si>
+  <si>
+    <t>0.641+/-0.011</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.722+/-0.002</t>
+  </si>
+  <si>
+    <t>0.72+/-0.012</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.228+/-0.011</t>
+  </si>
+  <si>
+    <t>0.611+/-0.002</t>
+  </si>
+  <si>
+    <t>0.613+/-0.0</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.581+/-0.002</t>
+  </si>
+  <si>
+    <t>0.583+/-0.014</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>0.796+/-0.005</t>
+  </si>
+  <si>
+    <t>0.796+/-0.02</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.595+/-0.002</t>
+  </si>
+  <si>
+    <t>0.595+/-0.0</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.587+/-0.001</t>
+  </si>
+  <si>
+    <t>0.588+/-0.016</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.641+/-0.002</t>
+  </si>
+  <si>
+    <t>0.641+/-0.019</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.866+/-0.007</t>
+  </si>
+  <si>
+    <t>0.823+/-0.0</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.854+/-0.014</t>
+  </si>
+  <si>
+    <t>0.81+/-0.021</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>0.883+/-0.027</t>
+  </si>
+  <si>
+    <t>0.844+/-0.033</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>4.163+/-0.851</t>
+  </si>
+  <si>
+    <t>0.813+/-0.006</t>
+  </si>
+  <si>
+    <t>0.771+/-0.0</t>
+  </si>
+  <si>
+    <t>0.815</t>
+  </si>
+  <si>
+    <t>0.918+/-0.007</t>
+  </si>
+  <si>
+    <t>0.856+/-0.011</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>0.688+/-0.015</t>
+  </si>
+  <si>
+    <t>0.651+/-0.022</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>0.133+/-0.007</t>
+  </si>
+  <si>
+    <t>0.8+/-0.004</t>
+  </si>
+  <si>
+    <t>0.759+/-0.0</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.922+/-0.007</t>
+  </si>
+  <si>
+    <t>0.859+/-0.014</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.656+/-0.01</t>
+  </si>
+  <si>
+    <t>0.62+/-0.026</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.186+/-0.001</t>
+  </si>
+  <si>
+    <t>0.798+/-0.001</t>
+  </si>
+  <si>
+    <t>0.78+/-0.0</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.797+/-0.002</t>
+  </si>
+  <si>
+    <t>0.777+/-0.012</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.8+/-0.005</t>
+  </si>
+  <si>
+    <t>0.785+/-0.026</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>29.97+/-0.433</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.733+/-0.0</t>
+  </si>
+  <si>
+    <t>0.558</t>
+  </si>
+  <si>
+    <t>0.671+/-0.008</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.916+/-0.011</t>
+  </si>
+  <si>
+    <t>0.589+/-0.001</t>
+  </si>
+  <si>
+    <t>0.585+/-0.0</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>0.592+/-0.012</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>0.554+/-0.001</t>
+  </si>
+  <si>
+    <t>0.549+/-0.017</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.129+/-0.008</t>
+  </si>
+  <si>
+    <t>0.564+/-0.002</t>
+  </si>
+  <si>
+    <t>0.56+/-0.0</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>0.576+/-0.002</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.487+/-0.017</t>
+  </si>
+  <si>
+    <t>0.483+/-0.016</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>0.561+/-0.001</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>0.565+/-0.002</t>
+  </si>
+  <si>
+    <t>0.565+/-0.013</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.524+/-0.002</t>
+  </si>
+  <si>
+    <t>0.523+/-0.012</t>
+  </si>
+  <si>
+    <t>0.737+/-0.012</t>
+  </si>
+  <si>
+    <t>0.661+/-0.0</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.724+/-0.028</t>
+  </si>
+  <si>
+    <t>0.65+/-0.025</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.772+/-0.069</t>
+  </si>
+  <si>
+    <t>0.704+/-0.077</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>3.1+/-0.571</t>
+  </si>
+  <si>
+    <t>0.757+/-0.006</t>
+  </si>
+  <si>
+    <t>0.679+/-0.0</t>
+  </si>
+  <si>
+    <t>0.664</t>
+  </si>
+  <si>
+    <t>0.801+/-0.034</t>
+  </si>
+  <si>
+    <t>0.71+/-0.04</t>
+  </si>
+  <si>
+    <t>0.371</t>
+  </si>
+  <si>
+    <t>0.689+/-0.05</t>
+  </si>
+  <si>
+    <t>0.616+/-0.048</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.108+/-0.006</t>
+  </si>
+  <si>
+    <t>0.74+/-0.005</t>
+  </si>
+  <si>
+    <t>0.683+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.827+/-0.031</t>
+  </si>
+  <si>
+    <t>0.747+/-0.038</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>0.609+/-0.041</t>
+  </si>
+  <si>
+    <t>0.559+/-0.034</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>0.148+/-0.001</t>
+  </si>
+  <si>
+    <t>0.682+/-0.003</t>
+  </si>
+  <si>
+    <t>0.639+/-0.0</t>
+  </si>
+  <si>
+    <t>0.679+/-0.003</t>
+  </si>
+  <si>
+    <t>0.635+/-0.011</t>
+  </si>
+  <si>
+    <t>0.347</t>
+  </si>
+  <si>
+    <t>0.69+/-0.012</t>
+  </si>
+  <si>
+    <t>0.652+/-0.018</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>28.048+/-0.745</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.71+/-0.0</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.652+/-0.012</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.998+/-0.0</t>
+  </si>
+  <si>
+    <t>0.898+/-0.011</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.566+/-0.003</t>
+  </si>
+  <si>
+    <t>0.562+/-0.0</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.572+/-0.003</t>
+  </si>
+  <si>
+    <t>0.568+/-0.016</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>0.523+/-0.003</t>
+  </si>
+  <si>
+    <t>0.519+/-0.021</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.106+/-0.017</t>
+  </si>
+  <si>
+    <t>0.55+/-0.002</t>
+  </si>
+  <si>
+    <t>0.551+/-0.0</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.553+/-0.003</t>
+  </si>
+  <si>
+    <t>0.554+/-0.014</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.524+/-0.012</t>
+  </si>
+  <si>
+    <t>0.525+/-0.033</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.548+/-0.002</t>
+  </si>
+  <si>
+    <t>0.546+/-0.0</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.551+/-0.002</t>
+  </si>
+  <si>
+    <t>0.548+/-0.016</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>0.519+/-0.005</t>
+  </si>
+  <si>
+    <t>0.519+/-0.031</t>
+  </si>
+  <si>
+    <t>0.506</t>
+  </si>
+  <si>
+    <t>0.713+/-0.007</t>
+  </si>
+  <si>
+    <t>0.638+/-0.0</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.707+/-0.025</t>
+  </si>
+  <si>
+    <t>0.633+/-0.018</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.734+/-0.05</t>
+  </si>
+  <si>
+    <t>0.663+/-0.055</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>2.468+/-0.385</t>
+  </si>
+  <si>
+    <t>0.733+/-0.003</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.761+/-0.058</t>
+  </si>
+  <si>
+    <t>0.691+/-0.057</t>
+  </si>
+  <si>
+    <t>0.7+/-0.092</t>
+  </si>
+  <si>
+    <t>0.633+/-0.09</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.106+/-0.009</t>
+  </si>
+  <si>
+    <t>0.719+/-0.005</t>
+  </si>
+  <si>
+    <t>0.665+/-0.0</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.754+/-0.06</t>
+  </si>
+  <si>
+    <t>0.693+/-0.055</t>
+  </si>
+  <si>
+    <t>0.673+/-0.096</t>
+  </si>
+  <si>
+    <t>0.617+/-0.099</t>
+  </si>
+  <si>
+    <t>0.442</t>
+  </si>
+  <si>
+    <t>0.143+/-0.005</t>
+  </si>
+  <si>
+    <t>0.664+/-0.003</t>
+  </si>
+  <si>
+    <t>0.62+/-0.0</t>
   </si>
   <si>
     <t>0.589</t>
   </si>
   <si>
-    <t>0.621+/-0.001</t>
-  </si>
-  <si>
-    <t>0.618+/-0.009</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>0.712+/-0.002</t>
-  </si>
-  <si>
-    <t>0.71+/-0.018</t>
-  </si>
-  <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>0.164+/-0.012</t>
-  </si>
-  <si>
-    <t>0.601+/-0.003</t>
-  </si>
-  <si>
-    <t>0.6+/-0.0</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>0.57+/-0.002</t>
-  </si>
-  <si>
-    <t>0.57+/-0.012</t>
-  </si>
-  <si>
-    <t>0.234</t>
-  </si>
-  <si>
-    <t>0.82+/-0.002</t>
-  </si>
-  <si>
-    <t>0.819+/-0.024</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.588+/-0.002</t>
-  </si>
-  <si>
-    <t>0.587+/-0.0</t>
-  </si>
-  <si>
-    <t>0.537</t>
-  </si>
-  <si>
-    <t>0.579+/-0.001</t>
-  </si>
-  <si>
-    <t>0.578+/-0.01</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.644+/-0.005</t>
-  </si>
-  <si>
-    <t>0.643+/-0.021</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.83+/-0.005</t>
-  </si>
-  <si>
-    <t>0.784+/-0.0</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.81+/-0.02</t>
-  </si>
-  <si>
-    <t>0.766+/-0.012</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.864+/-0.035</t>
-  </si>
-  <si>
-    <t>0.819+/-0.03</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>3.375+/-0.805</t>
-  </si>
-  <si>
-    <t>0.797+/-0.007</t>
-  </si>
-  <si>
-    <t>0.75+/-0.0</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.773+/-0.023</t>
-  </si>
-  <si>
-    <t>0.729+/-0.023</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.843+/-0.04</t>
-  </si>
-  <si>
-    <t>0.8+/-0.035</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.116+/-0.008</t>
-  </si>
-  <si>
-    <t>0.79+/-0.007</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.775+/-0.045</t>
-  </si>
-  <si>
-    <t>0.735+/-0.042</t>
-  </si>
-  <si>
-    <t>0.321</t>
-  </si>
-  <si>
-    <t>0.829+/-0.068</t>
-  </si>
-  <si>
-    <t>0.794+/-0.068</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>0.167+/-0.005</t>
-  </si>
-  <si>
-    <t>0.778+/-0.002</t>
-  </si>
-  <si>
-    <t>0.762+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.757+/-0.004</t>
-  </si>
-  <si>
-    <t>0.742+/-0.016</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.819+/-0.005</t>
-  </si>
-  <si>
-    <t>0.802+/-0.016</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>30.6+/-0.422</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.834+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.755+/-0.007</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>0.988+/-0.005</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.663+/-0.001</t>
-  </si>
-  <si>
-    <t>0.661+/-0.0</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.644+/-0.001</t>
-  </si>
-  <si>
-    <t>0.643+/-0.012</t>
-  </si>
-  <si>
-    <t>0.218</t>
-  </si>
-  <si>
-    <t>0.727+/-0.002</t>
-  </si>
-  <si>
-    <t>0.726+/-0.019</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.284+/-0.035</t>
-  </si>
-  <si>
-    <t>0.608+/-0.003</t>
-  </si>
-  <si>
-    <t>0.608+/-0.0</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.579+/-0.003</t>
-  </si>
-  <si>
-    <t>0.579+/-0.015</t>
-  </si>
-  <si>
-    <t>0.188</t>
-  </si>
-  <si>
-    <t>0.792+/-0.005</t>
-  </si>
-  <si>
-    <t>0.79+/-0.02</t>
-  </si>
-  <si>
-    <t>0.007+/-0.002</t>
-  </si>
-  <si>
-    <t>0.601+/-0.002</t>
-  </si>
-  <si>
-    <t>0.601+/-0.0</t>
-  </si>
-  <si>
-    <t>0.554</t>
-  </si>
-  <si>
-    <t>0.593+/-0.002</t>
-  </si>
-  <si>
-    <t>0.593+/-0.017</t>
-  </si>
-  <si>
-    <t>0.194</t>
-  </si>
-  <si>
-    <t>0.647+/-0.004</t>
-  </si>
-  <si>
-    <t>0.646+/-0.017</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.86+/-0.006</t>
-  </si>
-  <si>
-    <t>0.818+/-0.0</t>
-  </si>
-  <si>
-    <t>0.742</t>
-  </si>
-  <si>
-    <t>0.84+/-0.015</t>
-  </si>
-  <si>
-    <t>0.797+/-0.017</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.892+/-0.027</t>
-  </si>
-  <si>
-    <t>0.855+/-0.031</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>4.325+/-0.821</t>
-  </si>
-  <si>
-    <t>0.816+/-0.004</t>
-  </si>
-  <si>
-    <t>0.77+/-0.0</t>
-  </si>
-  <si>
-    <t>0.797</t>
-  </si>
-  <si>
-    <t>0.9+/-0.011</t>
-  </si>
-  <si>
-    <t>0.844+/-0.022</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.712+/-0.017</t>
-  </si>
-  <si>
-    <t>0.664+/-0.012</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.162+/-0.013</t>
-  </si>
-  <si>
-    <t>0.808+/-0.006</t>
-  </si>
-  <si>
-    <t>0.771+/-0.0</t>
-  </si>
-  <si>
-    <t>0.826</t>
-  </si>
-  <si>
-    <t>0.894+/-0.012</t>
-  </si>
-  <si>
-    <t>0.845+/-0.018</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>0.7+/-0.019</t>
-  </si>
-  <si>
-    <t>0.665+/-0.017</t>
-  </si>
-  <si>
-    <t>0.441</t>
-  </si>
-  <si>
-    <t>0.23+/-0.006</t>
-  </si>
-  <si>
-    <t>0.799+/-0.001</t>
-  </si>
-  <si>
-    <t>0.782+/-0.0</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>0.792+/-0.002</t>
-  </si>
-  <si>
-    <t>0.773+/-0.012</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.813+/-0.003</t>
-  </si>
-  <si>
-    <t>0.798+/-0.012</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>34.087+/-1.899</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.733+/-0.0</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>0.67+/-0.007</t>
-  </si>
-  <si>
-    <t>0.921+/-0.007</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.589+/-0.002</t>
-  </si>
-  <si>
-    <t>0.596+/-0.002</t>
-  </si>
-  <si>
-    <t>0.595+/-0.019</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.549+/-0.003</t>
-  </si>
-  <si>
-    <t>0.547+/-0.021</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>0.158+/-0.01</t>
-  </si>
-  <si>
-    <t>0.566+/-0.002</t>
-  </si>
-  <si>
-    <t>0.564+/-0.0</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.575+/-0.002</t>
-  </si>
-  <si>
-    <t>0.573+/-0.013</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.508+/-0.016</t>
-  </si>
-  <si>
-    <t>0.507+/-0.022</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>0.007+/-0.004</t>
-  </si>
-  <si>
-    <t>0.562+/-0.001</t>
-  </si>
-  <si>
-    <t>0.56+/-0.0</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.567+/-0.001</t>
-  </si>
-  <si>
-    <t>0.565+/-0.012</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.524+/-0.005</t>
-  </si>
-  <si>
-    <t>0.522+/-0.013</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.739+/-0.011</t>
-  </si>
-  <si>
-    <t>0.652+/-0.0</t>
-  </si>
-  <si>
-    <t>0.721+/-0.017</t>
-  </si>
-  <si>
-    <t>0.639+/-0.016</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.781+/-0.033</t>
-  </si>
-  <si>
-    <t>0.697+/-0.034</t>
-  </si>
-  <si>
-    <t>0.546</t>
-  </si>
-  <si>
-    <t>3.392+/-0.378</t>
-  </si>
-  <si>
-    <t>0.763+/-0.008</t>
-  </si>
-  <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.849+/-0.044</t>
-  </si>
-  <si>
-    <t>0.758+/-0.045</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.645+/-0.047</t>
-  </si>
-  <si>
-    <t>0.58+/-0.049</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.748+/-0.008</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.703</t>
-  </si>
-  <si>
-    <t>0.84+/-0.033</t>
-  </si>
-  <si>
-    <t>0.762+/-0.033</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.616+/-0.023</t>
-  </si>
-  <si>
-    <t>0.563+/-0.03</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.164+/-0.006</t>
-  </si>
-  <si>
-    <t>0.678+/-0.002</t>
-  </si>
-  <si>
-    <t>0.637+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.676+/-0.004</t>
-  </si>
-  <si>
-    <t>0.634+/-0.012</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>0.684+/-0.009</t>
-  </si>
-  <si>
-    <t>0.649+/-0.027</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>32.857+/-1.888</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.707+/-0.0</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.65+/-0.01</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.895+/-0.013</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.561+/-0.002</t>
-  </si>
-  <si>
-    <t>0.558+/-0.0</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.567+/-0.002</t>
-  </si>
-  <si>
-    <t>0.563+/-0.017</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.522+/-0.004</t>
-  </si>
-  <si>
-    <t>0.519+/-0.017</t>
-  </si>
-  <si>
-    <t>0.494</t>
-  </si>
-  <si>
-    <t>0.094+/-0.01</t>
-  </si>
-  <si>
-    <t>0.548+/-0.002</t>
-  </si>
-  <si>
-    <t>0.548+/-0.0</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.555+/-0.004</t>
-  </si>
-  <si>
-    <t>0.555+/-0.012</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.483+/-0.022</t>
-  </si>
-  <si>
-    <t>0.481+/-0.041</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>0.545+/-0.002</t>
-  </si>
-  <si>
-    <t>0.543+/-0.0</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.55+/-0.002</t>
-  </si>
-  <si>
-    <t>0.547+/-0.014</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.503+/-0.003</t>
-  </si>
-  <si>
-    <t>0.503+/-0.026</t>
-  </si>
-  <si>
-    <t>0.503</t>
-  </si>
-  <si>
-    <t>0.715+/-0.009</t>
-  </si>
-  <si>
-    <t>0.625+/-0.0</t>
-  </si>
-  <si>
-    <t>0.704+/-0.019</t>
-  </si>
-  <si>
-    <t>0.617+/-0.02</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.746+/-0.053</t>
-  </si>
-  <si>
-    <t>0.663+/-0.055</t>
-  </si>
-  <si>
-    <t>3.271+/-0.53</t>
-  </si>
-  <si>
-    <t>0.727+/-0.006</t>
-  </si>
-  <si>
-    <t>0.664+/-0.0</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.729+/-0.011</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.723+/-0.026</t>
-  </si>
-  <si>
-    <t>0.665+/-0.029</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>0.098+/-0.007</t>
-  </si>
-  <si>
-    <t>0.711+/-0.004</t>
-  </si>
-  <si>
-    <t>0.666+/-0.0</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.724+/-0.009</t>
-  </si>
-  <si>
-    <t>0.676+/-0.017</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.682+/-0.024</t>
-  </si>
-  <si>
-    <t>0.639+/-0.026</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.137+/-0.007</t>
-  </si>
-  <si>
-    <t>0.662+/-0.003</t>
-  </si>
-  <si>
-    <t>0.621+/-0.0</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.647+/-0.002</t>
-  </si>
-  <si>
-    <t>0.609+/-0.011</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.71+/-0.011</t>
-  </si>
-  <si>
-    <t>0.672+/-0.028</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>29.071+/-0.481</t>
+    <t>0.653+/-0.003</t>
+  </si>
+  <si>
+    <t>0.612+/-0.013</t>
+  </si>
+  <si>
+    <t>0.385</t>
+  </si>
+  <si>
+    <t>0.698+/-0.008</t>
+  </si>
+  <si>
+    <t>0.658+/-0.023</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>26.807+/-0.43</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1419,7 @@
         <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1448,10 +1448,10 @@
         <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1480,10 +1480,10 @@
         <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1512,10 +1512,10 @@
         <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1544,10 +1544,10 @@
         <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1576,10 +1576,10 @@
         <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1608,10 +1608,10 @@
         <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1640,10 +1640,10 @@
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1672,10 +1672,10 @@
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1704,10 +1704,10 @@
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1766,22 +1766,22 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
         <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1792,28 +1792,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
         <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1821,31 +1821,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
         <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1859,25 +1859,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
         <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1888,28 +1888,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
         <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1920,28 +1920,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
         <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1955,25 +1955,25 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
         <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1984,28 +1984,28 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
         <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2016,28 +2016,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2048,28 +2048,28 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
         <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2122,28 +2122,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2154,28 +2154,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2183,31 +2183,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2215,31 +2215,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2247,31 +2247,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2282,28 +2282,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
         <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2311,31 +2311,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
         <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2343,31 +2343,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
         <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2378,28 +2378,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
         <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2410,28 +2410,28 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="I11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2487,22 +2487,22 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
         <v>317</v>
@@ -2516,25 +2516,25 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J3" t="s">
         <v>318</v>
@@ -2545,28 +2545,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="H4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J4" t="s">
         <v>319</v>
@@ -2577,28 +2577,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G5" t="s">
         <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
         <v>320</v>
@@ -2609,28 +2609,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G6" t="s">
         <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="I6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J6" t="s">
         <v>321</v>
@@ -2644,25 +2644,25 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G7" t="s">
         <v>294</v>
       </c>
       <c r="H7" t="s">
-        <v>302</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="J7" t="s">
         <v>322</v>
@@ -2673,25 +2673,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G8" t="s">
         <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I8" t="s">
         <v>313</v>
@@ -2705,25 +2705,25 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G9" t="s">
         <v>296</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I9" t="s">
         <v>314</v>
@@ -2740,22 +2740,22 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G10" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I10" t="s">
         <v>315</v>
@@ -2775,19 +2775,19 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I11" t="s">
         <v>316</v>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="411">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -73,931 +73,1183 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
   </si>
   <si>
     <t>0.999+/-0.0</t>
   </si>
   <si>
-    <t>0.818+/-0.0</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.745+/-0.011</t>
-  </si>
-  <si>
-    <t>0.324</t>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.812</t>
+  </si>
+  <si>
+    <t>0.335+/-0.017</t>
+  </si>
+  <si>
+    <t>0.59</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.97+/-0.008</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.642+/-0.001</t>
-  </si>
-  <si>
-    <t>0.641+/-0.0</t>
-  </si>
-  <si>
-    <t>0.594</t>
-  </si>
-  <si>
-    <t>0.625+/-0.001</t>
-  </si>
-  <si>
-    <t>0.624+/-0.008</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.709+/-0.003</t>
-  </si>
-  <si>
-    <t>0.708+/-0.022</t>
+    <t>0.663+/-0.041</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>0.726+/-0.024</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.645+/-0.003</t>
+  </si>
+  <si>
+    <t>0.595+/-0.0</t>
+  </si>
+  <si>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.626+/-0.003</t>
+  </si>
+  <si>
+    <t>0.289+/-0.014</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>0.719+/-0.006</t>
+  </si>
+  <si>
+    <t>0.693+/-0.046</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.707+/-0.003</t>
+  </si>
+  <si>
+    <t>0.691+/-0.022</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.266+/-0.02</t>
+  </si>
+  <si>
+    <t>0.603+/-0.003</t>
+  </si>
+  <si>
+    <t>0.477+/-0.0</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.573+/-0.002</t>
+  </si>
+  <si>
+    <t>0.249+/-0.013</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.808+/-0.007</t>
+  </si>
+  <si>
+    <t>0.792+/-0.038</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>0.666+/-0.004</t>
+  </si>
+  <si>
+    <t>0.655+/-0.027</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.012+/-0.002</t>
+  </si>
+  <si>
+    <t>0.59+/-0.002</t>
+  </si>
+  <si>
+    <t>0.556+/-0.0</t>
+  </si>
+  <si>
+    <t>0.711</t>
+  </si>
+  <si>
+    <t>0.581+/-0.002</t>
+  </si>
+  <si>
+    <t>0.255+/-0.013</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.642+/-0.003</t>
+  </si>
+  <si>
+    <t>0.625+/-0.038</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.635+/-0.002</t>
+  </si>
+  <si>
+    <t>0.625+/-0.02</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.018+/-0.004</t>
+  </si>
+  <si>
+    <t>0.843+/-0.008</t>
+  </si>
+  <si>
+    <t>0.719+/-0.0</t>
+  </si>
+  <si>
+    <t>0.806</t>
+  </si>
+  <si>
+    <t>0.82+/-0.017</t>
+  </si>
+  <si>
+    <t>0.378+/-0.037</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.879+/-0.02</t>
+  </si>
+  <si>
+    <t>0.601+/-0.071</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.924+/-0.005</t>
+  </si>
+  <si>
+    <t>0.748+/-0.034</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>11.894+/-1.409</t>
+  </si>
+  <si>
+    <t>0.796+/-0.008</t>
+  </si>
+  <si>
+    <t>0.725+/-0.0</t>
+  </si>
+  <si>
+    <t>0.818+/-0.05</t>
+  </si>
+  <si>
+    <t>0.389+/-0.066</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.773+/-0.072</t>
+  </si>
+  <si>
+    <t>0.542+/-0.062</t>
+  </si>
+  <si>
+    <t>0.902+/-0.006</t>
+  </si>
+  <si>
+    <t>0.725+/-0.025</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>0.224+/-0.028</t>
+  </si>
+  <si>
+    <t>0.787+/-0.006</t>
+  </si>
+  <si>
+    <t>0.699+/-0.0</t>
+  </si>
+  <si>
+    <t>0.8+/-0.057</t>
+  </si>
+  <si>
+    <t>0.365+/-0.067</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.781+/-0.091</t>
+  </si>
+  <si>
+    <t>0.564+/-0.082</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.897+/-0.003</t>
+  </si>
+  <si>
+    <t>0.728+/-0.024</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.301+/-0.018</t>
+  </si>
+  <si>
+    <t>0.783+/-0.003</t>
+  </si>
+  <si>
+    <t>0.712+/-0.0</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.764+/-0.006</t>
+  </si>
+  <si>
+    <t>0.379+/-0.021</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.82+/-0.009</t>
+  </si>
+  <si>
+    <t>0.673+/-0.06</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.872+/-0.003</t>
+  </si>
+  <si>
+    <t>0.764+/-0.026</t>
+  </si>
+  <si>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>54.416+/-1.871</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.261+/-0.016</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>0.631+/-0.044</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.72+/-0.019</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.661+/-0.004</t>
+  </si>
+  <si>
+    <t>0.61+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.644+/-0.004</t>
+  </si>
+  <si>
+    <t>0.232+/-0.016</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.722+/-0.007</t>
+  </si>
+  <si>
+    <t>0.691+/-0.044</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.728+/-0.003</t>
+  </si>
+  <si>
+    <t>0.708+/-0.027</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.459+/-0.071</t>
+  </si>
+  <si>
+    <t>0.605+/-0.005</t>
+  </si>
+  <si>
+    <t>0.472+/-0.0</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.577+/-0.004</t>
+  </si>
+  <si>
+    <t>0.189+/-0.013</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>0.79+/-0.009</t>
+  </si>
+  <si>
+    <t>0.767+/-0.053</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.674+/-0.005</t>
+  </si>
+  <si>
+    <t>0.664+/-0.036</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.016+/-0.006</t>
+  </si>
+  <si>
+    <t>0.599+/-0.003</t>
+  </si>
+  <si>
+    <t>0.566+/-0.0</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.591+/-0.003</t>
+  </si>
+  <si>
+    <t>0.2+/-0.017</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.644+/-0.006</t>
+  </si>
+  <si>
+    <t>0.63+/-0.046</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.651+/-0.003</t>
+  </si>
+  <si>
+    <t>0.641+/-0.028</t>
+  </si>
+  <si>
+    <t>0.044+/-0.03</t>
+  </si>
+  <si>
+    <t>0.871+/-0.008</t>
+  </si>
+  <si>
+    <t>0.749+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.85+/-0.018</t>
+  </si>
+  <si>
+    <t>0.317+/-0.027</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.902+/-0.022</t>
+  </si>
+  <si>
+    <t>0.579+/-0.049</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.943+/-0.006</t>
+  </si>
+  <si>
+    <t>0.748+/-0.025</t>
+  </si>
+  <si>
+    <t>0.764</t>
+  </si>
+  <si>
+    <t>25.163+/-12.072</t>
+  </si>
+  <si>
+    <t>0.819+/-0.006</t>
+  </si>
+  <si>
+    <t>0.789+/-0.0</t>
+  </si>
+  <si>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>0.876+/-0.055</t>
+  </si>
+  <si>
+    <t>0.377+/-0.062</t>
+  </si>
+  <si>
+    <t>0.514</t>
+  </si>
+  <si>
+    <t>0.753+/-0.075</t>
+  </si>
+  <si>
+    <t>0.501+/-0.098</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.918+/-0.004</t>
+  </si>
+  <si>
+    <t>0.725+/-0.023</t>
+  </si>
+  <si>
+    <t>0.28+/-0.053</t>
+  </si>
+  <si>
+    <t>0.81+/-0.007</t>
+  </si>
+  <si>
+    <t>0.79+/-0.0</t>
+  </si>
+  <si>
+    <t>0.856</t>
+  </si>
+  <si>
+    <t>0.874+/-0.056</t>
+  </si>
+  <si>
+    <t>0.383+/-0.08</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.735+/-0.079</t>
+  </si>
+  <si>
+    <t>0.495+/-0.084</t>
+  </si>
+  <si>
+    <t>0.913+/-0.007</t>
+  </si>
+  <si>
+    <t>0.728+/-0.027</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.423+/-0.136</t>
+  </si>
+  <si>
+    <t>0.8+/-0.003</t>
+  </si>
+  <si>
+    <t>0.747+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.794+/-0.007</t>
+  </si>
+  <si>
+    <t>0.323+/-0.016</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.81+/-0.008</t>
+  </si>
+  <si>
+    <t>0.627+/-0.024</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.889+/-0.002</t>
+  </si>
+  <si>
+    <t>0.772+/-0.017</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>60.317+/-7.73</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.557+/-0.0</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.331+/-0.012</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.998+/-0.001</t>
+  </si>
+  <si>
+    <t>0.584+/-0.027</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.591+/-0.02</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.585+/-0.003</t>
+  </si>
+  <si>
+    <t>0.601+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.593+/-0.003</t>
+  </si>
+  <si>
+    <t>0.355+/-0.013</t>
+  </si>
+  <si>
+    <t>0.541+/-0.008</t>
+  </si>
+  <si>
+    <t>0.54+/-0.022</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.628+/-0.003</t>
+  </si>
+  <si>
+    <t>0.617+/-0.016</t>
+  </si>
+  <si>
+    <t>0.21+/-0.041</t>
+  </si>
+  <si>
+    <t>0.561+/-0.002</t>
+  </si>
+  <si>
+    <t>0.586+/-0.0</t>
+  </si>
+  <si>
+    <t>0.57+/-0.004</t>
+  </si>
+  <si>
+    <t>0.333+/-0.01</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.498+/-0.024</t>
+  </si>
+  <si>
+    <t>0.495+/-0.033</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.594+/-0.002</t>
+  </si>
+  <si>
+    <t>0.588+/-0.016</t>
+  </si>
+  <si>
+    <t>0.01+/-0.002</t>
+  </si>
+  <si>
+    <t>0.559+/-0.002</t>
+  </si>
+  <si>
+    <t>0.573+/-0.0</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>0.563+/-0.002</t>
+  </si>
+  <si>
+    <t>0.329+/-0.014</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.522+/-0.004</t>
+  </si>
+  <si>
+    <t>0.52+/-0.021</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.585+/-0.017</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.016+/-0.002</t>
+  </si>
+  <si>
+    <t>0.746+/-0.014</t>
+  </si>
+  <si>
+    <t>0.579+/-0.0</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.725+/-0.017</t>
+  </si>
+  <si>
+    <t>0.335+/-0.014</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.795+/-0.034</t>
+  </si>
+  <si>
+    <t>0.527+/-0.045</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>0.831+/-0.013</t>
+  </si>
+  <si>
+    <t>0.589+/-0.015</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>57.982+/-25.787</t>
+  </si>
+  <si>
+    <t>0.757+/-0.007</t>
+  </si>
+  <si>
+    <t>0.671+/-0.0</t>
+  </si>
+  <si>
+    <t>0.842+/-0.031</t>
+  </si>
+  <si>
+    <t>0.38+/-0.019</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>0.634+/-0.034</t>
+  </si>
+  <si>
+    <t>0.296+/-0.048</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.849+/-0.006</t>
+  </si>
+  <si>
+    <t>0.565+/-0.023</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.21+/-0.057</t>
+  </si>
+  <si>
+    <t>0.745+/-0.005</t>
+  </si>
+  <si>
+    <t>0.665+/-0.0</t>
   </si>
   <si>
     <t>0.717</t>
   </si>
   <si>
-    <t>0.16+/-0.009</t>
-  </si>
-  <si>
-    <t>0.603+/-0.002</t>
+    <t>0.82+/-0.049</t>
+  </si>
+  <si>
+    <t>0.384+/-0.049</t>
+  </si>
+  <si>
+    <t>0.469</t>
+  </si>
+  <si>
+    <t>0.635+/-0.057</t>
+  </si>
+  <si>
+    <t>0.31+/-0.076</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.837+/-0.005</t>
+  </si>
+  <si>
+    <t>0.571+/-0.015</t>
+  </si>
+  <si>
+    <t>0.356+/-0.081</t>
+  </si>
+  <si>
+    <t>0.682+/-0.004</t>
+  </si>
+  <si>
+    <t>0.597+/-0.0</t>
+  </si>
+  <si>
+    <t>0.678+/-0.004</t>
+  </si>
+  <si>
+    <t>0.35+/-0.016</t>
+  </si>
+  <si>
+    <t>0.696+/-0.013</t>
+  </si>
+  <si>
+    <t>0.529+/-0.028</t>
+  </si>
+  <si>
+    <t>0.76+/-0.002</t>
+  </si>
+  <si>
+    <t>0.614+/-0.02</t>
+  </si>
+  <si>
+    <t>55.243+/-2.977</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.537+/-0.0</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>1.0+/-0.001</t>
+  </si>
+  <si>
+    <t>0.347+/-0.016</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.999+/-0.001</t>
+  </si>
+  <si>
+    <t>0.57+/-0.037</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.571+/-0.023</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.565+/-0.004</t>
+  </si>
+  <si>
+    <t>0.572+/-0.0</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.363+/-0.019</t>
+  </si>
+  <si>
+    <t>0.527+/-0.011</t>
+  </si>
+  <si>
+    <t>0.517+/-0.028</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.597+/-0.004</t>
+  </si>
+  <si>
+    <t>0.584+/-0.018</t>
+  </si>
+  <si>
+    <t>0.16+/-0.039</t>
+  </si>
+  <si>
+    <t>0.547+/-0.003</t>
+  </si>
+  <si>
+    <t>0.564+/-0.0</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.553+/-0.006</t>
+  </si>
+  <si>
+    <t>0.352+/-0.014</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.497+/-0.035</t>
+  </si>
+  <si>
+    <t>0.492+/-0.048</t>
+  </si>
+  <si>
+    <t>0.577+/-0.003</t>
+  </si>
+  <si>
+    <t>0.57+/-0.017</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.01+/-0.004</t>
+  </si>
+  <si>
+    <t>0.545+/-0.002</t>
+  </si>
+  <si>
+    <t>0.559+/-0.0</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.549+/-0.002</t>
+  </si>
+  <si>
+    <t>0.349+/-0.016</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.503+/-0.002</t>
+  </si>
+  <si>
+    <t>0.5+/-0.033</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.567+/-0.002</t>
+  </si>
+  <si>
+    <t>0.563+/-0.016</t>
+  </si>
+  <si>
+    <t>0.016+/-0.008</t>
+  </si>
+  <si>
+    <t>0.712+/-0.01</t>
+  </si>
+  <si>
+    <t>0.577+/-0.0</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.707+/-0.023</t>
+  </si>
+  <si>
+    <t>0.366+/-0.027</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.73+/-0.056</t>
+  </si>
+  <si>
+    <t>0.492+/-0.052</t>
+  </si>
+  <si>
+    <t>0.185</t>
+  </si>
+  <si>
+    <t>0.796+/-0.01</t>
+  </si>
+  <si>
+    <t>0.577+/-0.021</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>23.194+/-4.591</t>
+  </si>
+  <si>
+    <t>0.731+/-0.01</t>
+  </si>
+  <si>
+    <t>0.582+/-0.0</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.722+/-0.02</t>
+  </si>
+  <si>
+    <t>0.362+/-0.028</t>
+  </si>
+  <si>
+    <t>0.432</t>
+  </si>
+  <si>
+    <t>0.752+/-0.032</t>
+  </si>
+  <si>
+    <t>0.463+/-0.036</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>0.825+/-0.009</t>
+  </si>
+  <si>
+    <t>0.556+/-0.025</t>
+  </si>
+  <si>
+    <t>0.153+/-0.012</t>
+  </si>
+  <si>
+    <t>0.716+/-0.007</t>
   </si>
   <si>
     <t>0.602+/-0.0</t>
   </si>
   <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.572+/-0.001</t>
-  </si>
-  <si>
-    <t>0.572+/-0.012</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.815+/-0.002</t>
-  </si>
-  <si>
-    <t>0.815+/-0.016</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.59+/-0.002</t>
-  </si>
-  <si>
-    <t>0.59+/-0.0</t>
-  </si>
-  <si>
-    <t>0.535</t>
-  </si>
-  <si>
-    <t>0.581+/-0.001</t>
-  </si>
-  <si>
-    <t>0.582+/-0.01</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>0.642+/-0.004</t>
-  </si>
-  <si>
-    <t>0.642+/-0.018</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.006+/-0.0</t>
-  </si>
-  <si>
-    <t>0.831+/-0.006</t>
-  </si>
-  <si>
-    <t>0.783+/-0.0</t>
-  </si>
-  <si>
-    <t>0.741</t>
-  </si>
-  <si>
-    <t>0.802+/-0.018</t>
-  </si>
-  <si>
-    <t>0.754+/-0.014</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>0.88+/-0.026</t>
-  </si>
-  <si>
-    <t>0.843+/-0.032</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>2.753+/-0.406</t>
-  </si>
-  <si>
-    <t>0.792+/-0.003</t>
-  </si>
-  <si>
-    <t>0.741+/-0.0</t>
-  </si>
-  <si>
-    <t>0.666</t>
-  </si>
-  <si>
-    <t>0.778+/-0.026</t>
-  </si>
-  <si>
-    <t>0.728+/-0.024</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.82+/-0.044</t>
-  </si>
-  <si>
-    <t>0.775+/-0.049</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.109+/-0.005</t>
-  </si>
-  <si>
-    <t>0.788+/-0.003</t>
-  </si>
-  <si>
-    <t>0.742+/-0.0</t>
-  </si>
-  <si>
-    <t>0.732</t>
-  </si>
-  <si>
-    <t>0.801+/-0.032</t>
-  </si>
-  <si>
-    <t>0.75+/-0.029</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.772+/-0.052</t>
-  </si>
-  <si>
-    <t>0.732+/-0.06</t>
-  </si>
-  <si>
-    <t>0.453</t>
-  </si>
-  <si>
-    <t>0.145+/-0.001</t>
-  </si>
-  <si>
-    <t>0.779+/-0.002</t>
-  </si>
-  <si>
-    <t>0.761+/-0.0</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.76+/-0.002</t>
-  </si>
-  <si>
-    <t>0.742+/-0.012</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.817+/-0.005</t>
-  </si>
-  <si>
-    <t>0.8+/-0.021</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>27.075+/-1.215</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.837+/-0.0</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.759+/-0.007</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>0.988+/-0.008</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.661+/-0.002</t>
-  </si>
-  <si>
-    <t>0.658+/-0.0</t>
-  </si>
-  <si>
-    <t>0.643+/-0.002</t>
-  </si>
-  <si>
-    <t>0.641+/-0.011</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.722+/-0.002</t>
-  </si>
-  <si>
-    <t>0.72+/-0.012</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.228+/-0.011</t>
-  </si>
-  <si>
-    <t>0.611+/-0.002</t>
-  </si>
-  <si>
-    <t>0.613+/-0.0</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>0.581+/-0.002</t>
-  </si>
-  <si>
-    <t>0.583+/-0.014</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>0.796+/-0.005</t>
-  </si>
-  <si>
-    <t>0.796+/-0.02</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.595+/-0.002</t>
-  </si>
-  <si>
-    <t>0.595+/-0.0</t>
-  </si>
-  <si>
-    <t>0.554</t>
-  </si>
-  <si>
-    <t>0.587+/-0.001</t>
-  </si>
-  <si>
-    <t>0.588+/-0.016</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>0.641+/-0.002</t>
-  </si>
-  <si>
-    <t>0.641+/-0.019</t>
-  </si>
-  <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.866+/-0.007</t>
-  </si>
-  <si>
-    <t>0.823+/-0.0</t>
-  </si>
-  <si>
-    <t>0.768</t>
-  </si>
-  <si>
-    <t>0.854+/-0.014</t>
-  </si>
-  <si>
-    <t>0.81+/-0.021</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>0.883+/-0.027</t>
-  </si>
-  <si>
-    <t>0.844+/-0.033</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>4.163+/-0.851</t>
-  </si>
-  <si>
-    <t>0.813+/-0.006</t>
-  </si>
-  <si>
-    <t>0.771+/-0.0</t>
-  </si>
-  <si>
-    <t>0.815</t>
-  </si>
-  <si>
-    <t>0.918+/-0.007</t>
-  </si>
-  <si>
-    <t>0.856+/-0.011</t>
-  </si>
-  <si>
-    <t>0.387</t>
-  </si>
-  <si>
-    <t>0.688+/-0.015</t>
-  </si>
-  <si>
-    <t>0.651+/-0.022</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>0.133+/-0.007</t>
-  </si>
-  <si>
-    <t>0.8+/-0.004</t>
-  </si>
-  <si>
-    <t>0.759+/-0.0</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.922+/-0.007</t>
-  </si>
-  <si>
-    <t>0.859+/-0.014</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.656+/-0.01</t>
-  </si>
-  <si>
-    <t>0.62+/-0.026</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.186+/-0.001</t>
-  </si>
-  <si>
-    <t>0.798+/-0.001</t>
-  </si>
-  <si>
-    <t>0.78+/-0.0</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.797+/-0.002</t>
-  </si>
-  <si>
-    <t>0.777+/-0.012</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.8+/-0.005</t>
-  </si>
-  <si>
-    <t>0.785+/-0.026</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>29.97+/-0.433</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.733+/-0.0</t>
-  </si>
-  <si>
-    <t>0.558</t>
-  </si>
-  <si>
-    <t>0.671+/-0.008</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.916+/-0.011</t>
-  </si>
-  <si>
-    <t>0.589+/-0.001</t>
-  </si>
-  <si>
-    <t>0.585+/-0.0</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>0.592+/-0.012</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.554+/-0.001</t>
-  </si>
-  <si>
-    <t>0.549+/-0.017</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.129+/-0.008</t>
-  </si>
-  <si>
-    <t>0.564+/-0.002</t>
-  </si>
-  <si>
-    <t>0.56+/-0.0</t>
-  </si>
-  <si>
-    <t>0.633</t>
-  </si>
-  <si>
-    <t>0.576+/-0.002</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.487+/-0.017</t>
-  </si>
-  <si>
-    <t>0.483+/-0.016</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.561+/-0.001</t>
-  </si>
-  <si>
-    <t>0.582</t>
-  </si>
-  <si>
-    <t>0.565+/-0.002</t>
-  </si>
-  <si>
-    <t>0.565+/-0.013</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.524+/-0.002</t>
-  </si>
-  <si>
-    <t>0.523+/-0.012</t>
-  </si>
-  <si>
-    <t>0.737+/-0.012</t>
-  </si>
-  <si>
-    <t>0.661+/-0.0</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.724+/-0.028</t>
-  </si>
-  <si>
-    <t>0.65+/-0.025</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.772+/-0.069</t>
-  </si>
-  <si>
-    <t>0.704+/-0.077</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>3.1+/-0.571</t>
-  </si>
-  <si>
-    <t>0.757+/-0.006</t>
-  </si>
-  <si>
-    <t>0.679+/-0.0</t>
-  </si>
-  <si>
-    <t>0.664</t>
-  </si>
-  <si>
-    <t>0.801+/-0.034</t>
-  </si>
-  <si>
-    <t>0.71+/-0.04</t>
-  </si>
-  <si>
-    <t>0.371</t>
-  </si>
-  <si>
-    <t>0.689+/-0.05</t>
-  </si>
-  <si>
-    <t>0.616+/-0.048</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.108+/-0.006</t>
-  </si>
-  <si>
-    <t>0.74+/-0.005</t>
-  </si>
-  <si>
-    <t>0.683+/-0.0</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.827+/-0.031</t>
-  </si>
-  <si>
-    <t>0.747+/-0.038</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>0.609+/-0.041</t>
-  </si>
-  <si>
-    <t>0.559+/-0.034</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.148+/-0.001</t>
-  </si>
-  <si>
-    <t>0.682+/-0.003</t>
-  </si>
-  <si>
-    <t>0.639+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679+/-0.003</t>
-  </si>
-  <si>
-    <t>0.635+/-0.011</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.69+/-0.012</t>
-  </si>
-  <si>
-    <t>0.652+/-0.018</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>28.048+/-0.745</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.71+/-0.0</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.652+/-0.012</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.998+/-0.0</t>
-  </si>
-  <si>
-    <t>0.898+/-0.011</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.566+/-0.003</t>
-  </si>
-  <si>
-    <t>0.562+/-0.0</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>0.572+/-0.003</t>
-  </si>
-  <si>
-    <t>0.568+/-0.016</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>0.523+/-0.003</t>
-  </si>
-  <si>
-    <t>0.519+/-0.021</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.106+/-0.017</t>
-  </si>
-  <si>
-    <t>0.55+/-0.002</t>
-  </si>
-  <si>
-    <t>0.551+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.553+/-0.003</t>
-  </si>
-  <si>
-    <t>0.554+/-0.014</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.524+/-0.012</t>
-  </si>
-  <si>
-    <t>0.525+/-0.033</t>
-  </si>
-  <si>
-    <t>0.532</t>
-  </si>
-  <si>
-    <t>0.548+/-0.002</t>
-  </si>
-  <si>
-    <t>0.546+/-0.0</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.551+/-0.002</t>
-  </si>
-  <si>
-    <t>0.548+/-0.016</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.519+/-0.005</t>
-  </si>
-  <si>
-    <t>0.519+/-0.031</t>
-  </si>
-  <si>
-    <t>0.506</t>
-  </si>
-  <si>
-    <t>0.713+/-0.007</t>
-  </si>
-  <si>
-    <t>0.638+/-0.0</t>
+    <t>0.714+/-0.009</t>
+  </si>
+  <si>
+    <t>0.38+/-0.029</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.721+/-0.032</t>
+  </si>
+  <si>
+    <t>0.454+/-0.032</t>
+  </si>
+  <si>
+    <t>0.178</t>
+  </si>
+  <si>
+    <t>0.806+/-0.007</t>
+  </si>
+  <si>
+    <t>0.262+/-0.051</t>
+  </si>
+  <si>
+    <t>0.665+/-0.002</t>
+  </si>
+  <si>
+    <t>0.574+/-0.0</t>
+  </si>
+  <si>
+    <t>0.655+/-0.005</t>
+  </si>
+  <si>
+    <t>0.37+/-0.014</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.698+/-0.011</t>
+  </si>
+  <si>
+    <t>0.549+/-0.033</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.736+/-0.002</t>
+  </si>
+  <si>
+    <t>0.597+/-0.022</t>
   </si>
   <si>
     <t>0.57</t>
   </si>
   <si>
-    <t>0.707+/-0.025</t>
-  </si>
-  <si>
-    <t>0.633+/-0.018</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.734+/-0.05</t>
-  </si>
-  <si>
-    <t>0.663+/-0.055</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>2.468+/-0.385</t>
-  </si>
-  <si>
-    <t>0.733+/-0.003</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.761+/-0.058</t>
-  </si>
-  <si>
-    <t>0.691+/-0.057</t>
-  </si>
-  <si>
-    <t>0.7+/-0.092</t>
-  </si>
-  <si>
-    <t>0.633+/-0.09</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>0.106+/-0.009</t>
-  </si>
-  <si>
-    <t>0.719+/-0.005</t>
-  </si>
-  <si>
-    <t>0.665+/-0.0</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.754+/-0.06</t>
-  </si>
-  <si>
-    <t>0.693+/-0.055</t>
-  </si>
-  <si>
-    <t>0.673+/-0.096</t>
-  </si>
-  <si>
-    <t>0.617+/-0.099</t>
-  </si>
-  <si>
-    <t>0.442</t>
-  </si>
-  <si>
-    <t>0.143+/-0.005</t>
-  </si>
-  <si>
-    <t>0.664+/-0.003</t>
-  </si>
-  <si>
-    <t>0.62+/-0.0</t>
-  </si>
-  <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>0.653+/-0.003</t>
-  </si>
-  <si>
-    <t>0.612+/-0.013</t>
-  </si>
-  <si>
-    <t>0.385</t>
-  </si>
-  <si>
-    <t>0.698+/-0.008</t>
-  </si>
-  <si>
-    <t>0.658+/-0.023</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>26.807+/-0.43</t>
+    <t>49.453+/-3.385</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1395,31 +1647,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1427,31 +1679,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1459,31 +1711,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1491,31 +1743,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1523,31 +1775,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1555,31 +1807,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1587,31 +1839,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1619,31 +1871,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1651,31 +1903,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1683,31 +1935,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +2065,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1757,31 +2105,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1789,31 +2137,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1821,31 +2169,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1853,31 +2201,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1885,31 +2233,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1917,31 +2265,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="J7" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1949,31 +2297,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="J8" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1981,31 +2329,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2013,31 +2361,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J10" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2045,31 +2393,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="G11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
         <v>149</v>
       </c>
-      <c r="H11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" t="s">
-        <v>179</v>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2119,31 +2563,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2151,31 +2595,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="J3" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2183,31 +2627,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="G4" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="I4" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="J4" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2215,31 +2659,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="I5" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="J5" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2247,31 +2691,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="H6" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="I6" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="J6" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2279,31 +2723,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="I7" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="J7" t="s">
-        <v>246</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2311,31 +2755,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="H8" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="I8" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
       <c r="J8" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2343,31 +2787,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="G9" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="H9" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="I9" t="s">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="J9" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2375,31 +2819,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="I10" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2407,31 +2851,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="I11" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="J11" t="s">
-        <v>250</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" t="s">
+        <v>295</v>
+      </c>
+      <c r="I13" t="s">
+        <v>295</v>
+      </c>
+      <c r="J13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" t="s">
+        <v>308</v>
+      </c>
+      <c r="J14" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2981,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2481,31 +3021,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>364</v>
       </c>
       <c r="H2" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
       <c r="I2" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="J2" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2513,31 +3053,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="G3" t="s">
-        <v>290</v>
+        <v>365</v>
       </c>
       <c r="H3" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="I3" t="s">
-        <v>309</v>
+        <v>390</v>
       </c>
       <c r="J3" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2545,31 +3085,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="F4" t="s">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="H4" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="I4" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2577,31 +3117,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="F5" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="H5" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
       <c r="I5" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2609,31 +3149,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="F6" t="s">
-        <v>284</v>
+        <v>356</v>
       </c>
       <c r="G6" t="s">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="H6" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="I6" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="J6" t="s">
-        <v>321</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2641,31 +3181,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
       <c r="G7" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>382</v>
       </c>
       <c r="I7" t="s">
-        <v>192</v>
+        <v>393</v>
       </c>
       <c r="J7" t="s">
-        <v>322</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2673,31 +3213,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
-        <v>286</v>
+        <v>358</v>
       </c>
       <c r="G8" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="H8" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="I8" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="J8" t="s">
-        <v>323</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2705,31 +3245,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="F9" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="G9" t="s">
-        <v>296</v>
+        <v>371</v>
       </c>
       <c r="H9" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="I9" t="s">
-        <v>314</v>
+        <v>395</v>
       </c>
       <c r="J9" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2737,31 +3277,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
       <c r="H10" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
       <c r="I10" t="s">
-        <v>315</v>
+        <v>396</v>
       </c>
       <c r="J10" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2769,31 +3309,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>361</v>
       </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="H11" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="I11" t="s">
-        <v>316</v>
+        <v>397</v>
       </c>
       <c r="J11" t="s">
-        <v>326</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" t="s">
+        <v>362</v>
+      </c>
+      <c r="G12" t="s">
+        <v>374</v>
+      </c>
+      <c r="H12" t="s">
+        <v>387</v>
+      </c>
+      <c r="I12" t="s">
+        <v>294</v>
+      </c>
+      <c r="J12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H13" t="s">
+        <v>329</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" t="s">
+        <v>388</v>
+      </c>
+      <c r="I14" t="s">
+        <v>398</v>
+      </c>
+      <c r="J14" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
